--- a/FCF/Configurazioni/Configurazione_Forzatura_Iva.xlsx
+++ b/FCF/Configurazioni/Configurazione_Forzatura_Iva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmascape\Documents\GitHub\databricks_provvisoria\file_caricamento\FCF\Configurazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F70E7B7-1731-4640-B5E9-75B437EA6844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B58749-5698-4899-A95C-E0680DA20000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4905" yWindow="4785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,16 +30,16 @@
     <t>commodity</t>
   </si>
   <si>
-    <t>annomeseinizio</t>
-  </si>
-  <si>
-    <t>annomesefine</t>
-  </si>
-  <si>
     <t>iva</t>
   </si>
   <si>
     <t>GAS</t>
+  </si>
+  <si>
+    <t>annomese_inizio</t>
+  </si>
+  <si>
+    <t>annomese_fine</t>
   </si>
 </sst>
 </file>
@@ -363,14 +363,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -379,18 +379,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>202110</v>
